--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390565</v>
+        <v>889432.3191390566</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248489.977056526</v>
+        <v>210579.9731311747</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132059</v>
+        <v>7937223.370132057</v>
       </c>
     </row>
     <row r="11">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.1096832932227</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -795,16 +795,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>85.31372784089211</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>137.0424786983365</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>20.85732126240501</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>231.863583504628</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>114.2834788052498</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>125.6384340685011</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>51.83903723181706</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,16 +1540,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.45262105857543</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>397.40005618345</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.4923106593519</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1743,7 +1743,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255737</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1786,7 +1786,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.8767211222546</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.78424627109328</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>249.4119459064931</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>63.86368267430441</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>82.92375604299501</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -2290,10 +2290,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.8813118982896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>215.039344642804</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>279.9387901805692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>28.477970950351</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>152.8184978658203</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>83.58343582796488</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2883,10 +2883,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>190.2713935802969</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>166.8003053717086</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>201.0661795492181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3156,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3184,31 +3184,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>346.8766818975663</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>14.50169760213065</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>230.263497954106</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>205.1478855987994</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>162.3333543119055</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3566,10 +3566,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.94598636023064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.83808333974883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.52849267329247</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>310.8635759547342</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>53.3670293231844</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.452075920964713</v>
       </c>
       <c r="G43" t="n">
-        <v>162.5776147681366</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>103.9751665068905</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.95117253761801</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>146.6470461191483</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4361,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564601</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W3" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.4692992915062</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D6" t="n">
-        <v>264.694080783236</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E6" t="n">
-        <v>105.4566257777805</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,7 +4653,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>825.6304093507003</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>582.1816327066002</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>374.3301325010674</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="7">
@@ -4714,7 +4714,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>765.9990901358877</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="C8" t="n">
-        <v>500.0980457402646</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="D8" t="n">
-        <v>234.1970013446414</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E8" t="n">
-        <v>234.1970013446414</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F8" t="n">
-        <v>234.1970013446414</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G8" t="n">
-        <v>234.1970013446414</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>234.1970013446414</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>1031.900134531511</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V8" t="n">
-        <v>765.9990901358877</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W8" t="n">
-        <v>765.9990901358877</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X8" t="n">
-        <v>765.9990901358877</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="Y8" t="n">
-        <v>765.9990901358877</v>
+        <v>818.7624959030018</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.4144152406848</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
-        <v>782.4144152406848</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>666.9765578616446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>507.7391028561891</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>361.204544883074</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683217</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>398.824578434775</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9454581020252</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141754</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806668</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480438</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>782.4144152406848</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>782.4144152406848</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>782.4144152406848</v>
+        <v>926.0606266465643</v>
       </c>
       <c r="V9" t="n">
-        <v>782.4144152406848</v>
+        <v>690.9085184148216</v>
       </c>
       <c r="W9" t="n">
-        <v>782.4144152406848</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>782.4144152406848</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>782.4144152406848</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>807.3934508328825</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,7 +5039,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="12">
@@ -5100,19 +5100,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5127,13 +5127,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5179,22 +5179,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240413</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261309</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1937.591755944065</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C14" t="n">
-        <v>1937.591755944065</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.326057337315</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.53780473907</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>782.5518999494627</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,7 +5276,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5309,19 +5309,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.057514205145</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="W14" t="n">
-        <v>2311.057514205145</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X14" t="n">
-        <v>1937.591755944065</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y14" t="n">
-        <v>1937.591755944065</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="15">
@@ -5373,19 +5373,19 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600564</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>722.2873163082934</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C17" t="n">
-        <v>722.2873163082934</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D17" t="n">
-        <v>722.2873163082934</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E17" t="n">
-        <v>722.2873163082934</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F17" t="n">
-        <v>722.2873163082934</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G17" t="n">
-        <v>304.3235082064803</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5540,25 +5540,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>1112.426648284105</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y17" t="n">
-        <v>722.2873163082934</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,10 +5592,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
         <v>670.8219208598708</v>
@@ -5631,10 +5631,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>509.3247150619588</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C19" t="n">
-        <v>340.388532134052</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5716,7 +5716,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>690.9731798921986</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1241.158393318536</v>
+        <v>1429.843117663621</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>1429.843117663621</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1429.843117663621</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1044.054865065376</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>633.0689602757689</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.575150942547</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W20" t="n">
-        <v>1695.806495672433</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X20" t="n">
-        <v>1631.297725294347</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y20" t="n">
-        <v>1241.158393318536</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5805,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="H22" t="n">
         <v>2022.963088632153</v>
@@ -5914,46 +5914,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R22" t="n">
-        <v>2519.585513306029</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S22" t="n">
-        <v>2305.297090124192</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.988902792793</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>2106.724458372552</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.5099885583422</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036445</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036445</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.109828622464</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>551.4811944101821</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.643464250441</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>689.1182491573331</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>271.15444105552</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2414.382636290375</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2414.382636290375</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>2414.382636290375</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.243304314563</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424003</v>
@@ -6306,22 +6306,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6342,10 +6342,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2334.947574253992</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2188.057626756081</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U28" t="n">
-        <v>63.50052796378793</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V28" t="n">
-        <v>63.50052796378793</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W28" t="n">
-        <v>63.50052796378793</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X28" t="n">
-        <v>63.50052796378793</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2482.860667836385</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1465.19530355422</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1465.19530355422</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1106.929604947469</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1106.929604947469</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2381.515200905345</v>
       </c>
       <c r="W29" t="n">
-        <v>1838.661061815299</v>
+        <v>2028.746545635231</v>
       </c>
       <c r="X29" t="n">
-        <v>1465.19530355422</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y29" t="n">
-        <v>1465.19530355422</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6561,22 +6561,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>246.1363086691492</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1494.154169929768</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C32" t="n">
-        <v>1125.191652989356</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>766.9259543826058</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6725,25 +6725,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2297.457756921766</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2043.695971559857</v>
       </c>
       <c r="V32" t="n">
-        <v>2423.485734520778</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="W32" t="n">
-        <v>2070.717079250664</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X32" t="n">
-        <v>1697.251320989584</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y32" t="n">
-        <v>1494.154169929768</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6780,7 +6780,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
         <v>670.8219208598708</v>
@@ -6804,16 +6804,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2678.586644293418</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C34" t="n">
-        <v>2678.586644293418</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D34" t="n">
-        <v>2678.586644293418</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2678.586644293418</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2255.520561484594</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C35" t="n">
-        <v>1886.558044544182</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D35" t="n">
-        <v>1528.292345937432</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E35" t="n">
-        <v>1142.504093339188</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>731.5181885495801</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224074</v>
@@ -6953,34 +6953,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.500911622131</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.500911622131</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.500911622131</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548716</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="Y35" t="n">
-        <v>2642.120401548716</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>368.8844281164668</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>513.840561024597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>286.5323736931988</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>2489.929004554789</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>892.8693763960225</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C38" t="n">
-        <v>892.8693763960225</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2533.176005854682</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2279.414220492773</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>1948.351333149202</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="Y38" t="n">
-        <v>892.8693763960225</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>689.9086980046678</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C40" t="n">
-        <v>520.9725150767609</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D40" t="n">
-        <v>370.8558756644252</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>115.0828734095488</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7339,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064343</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064343</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.911859172214</v>
+        <v>946.7754666214612</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.911859172214</v>
+        <v>588.5097680147107</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1236065739693</v>
+        <v>588.5097680147107</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036446</v>
@@ -7436,25 +7436,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>218.1627947174722</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="C43" t="n">
-        <v>218.1627947174722</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="D43" t="n">
-        <v>218.1627947174722</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="E43" t="n">
-        <v>218.1627947174722</v>
+        <v>63.49053325568235</v>
       </c>
       <c r="F43" t="n">
-        <v>218.1627947174722</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7597,22 +7597,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610023</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="X43" t="n">
-        <v>438.9553738610023</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.1627947174722</v>
+        <v>211.4036268380755</v>
       </c>
     </row>
     <row r="44">
@@ -7664,7 +7664,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018223</v>
@@ -7679,19 +7679,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.288858935031</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X44" t="n">
-        <v>1584.823100673951</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y44" t="n">
-        <v>1553.559290029893</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7737,10 +7737,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036446</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>264.0572753751425</v>
+        <v>405.3760678736849</v>
       </c>
       <c r="N9" t="n">
-        <v>394.5837460350002</v>
+        <v>133.9994170665478</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.42350035664464</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22683,16 +22683,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,19 +22784,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>59.75548455249177</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>95.75810845108876</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22954,10 +22954,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
-        <v>102.0308578193407</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,16 +23033,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,16 +23075,16 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>230.4809303565272</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>137.8675171738411</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23103,22 +23103,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>33.16158675938894</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>100.2996914017162</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>8.11441070893386</v>
       </c>
       <c r="H10" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
         <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>63.45830508392203</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
         <v>227.7682732010226</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>297.4019314855959</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,16 +23428,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>16.38411383734496</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23549,19 +23549,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>9.73185684893744</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735753</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>76.04605164210253</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>47.41997957426331</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23908,7 +23908,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>181.8004070810015</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>164.3722241143018</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24020,22 +24020,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>305.8674180041646</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24142,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>73.24713279880014</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,19 +24206,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>74.7442514401136</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24418,19 +24418,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401882</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.70334145380519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>108.8834281215532</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>47.81346828956566</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>138.8318313086999</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24646,16 +24646,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1226826701055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>254.0575478758911</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.16882264217</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>43.85831389017028</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24889,7 +24889,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>96.25160475629411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>49.64801498594917</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>185.1717591068355</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25072,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.74592769735792</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>66.90748812322869</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>159.9140152068409</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25211,7 +25211,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,13 +25360,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>56.01837628787175</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329538</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25397,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>54.11496604575234</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>343.291952295823</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.9938968421885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>74.43712911904575</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25600,7 +25600,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,16 +25628,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>54.40931581627331</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>353.509016418527</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>135.9689721019665</v>
       </c>
       <c r="G43" t="n">
-        <v>4.732187490914271</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25837,22 +25837,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>278.7586751565901</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25919,10 +25919,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>355.2867661184356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.18493406278901</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.3990502441</v>
+        <v>459351.399050244</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.416541758</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>147339.1279972479</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26329,13 +26329,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266329</v>
+        <v>26613.587572663</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525687</v>
+        <v>5625.642228525643</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714449</v>
+        <v>196.6176664714447</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26439,7 +26439,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26457,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,25 +26485,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340947</v>
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861916</v>
+        <v>12006.33885861917</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016687</v>
+        <v>92775.77039016692</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535127996</v>
+        <v>70394.51535128016</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326495</v>
+        <v>-211685.3057326498</v>
       </c>
       <c r="F6" t="n">
         <v>196035.1319509247</v>
@@ -26540,7 +26540,7 @@
         <v>196035.1319509247</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518185</v>
@@ -26549,16 +26549,16 @@
         <v>196035.1319509247</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.489722399</v>
+        <v>190409.4897223991</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028964</v>
+        <v>93601.01426028956</v>
       </c>
       <c r="N6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="O6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="P6" t="n">
         <v>196035.1319509247</v>
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,25 +26805,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545557</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302971</v>
+        <v>354.7302815302973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400783</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400771</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -31856,7 +31856,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32318,7 +32318,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32552,7 +32552,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32786,7 +32786,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32798,7 +32798,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>167.900586832999</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
@@ -33026,7 +33026,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33044,7 +33044,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33272,10 +33272,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O30" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33500,10 +33500,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M33" t="n">
         <v>205.8702969983122</v>
@@ -33737,7 +33737,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33755,7 +33755,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33971,7 +33971,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33983,7 +33983,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
         <v>193.3156655923047</v>
@@ -34214,7 +34214,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34381,13 +34381,13 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044143</v>
       </c>
       <c r="R44" t="n">
         <v>95.39071536633797</v>
@@ -34457,13 +34457,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>134.4655350174245</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>2.65770498321449</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35504,7 +35504,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -36200,7 +36200,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932192</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36674,10 +36674,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,10 +36920,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -37148,10 +37148,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37318,7 +37318,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
@@ -37385,7 +37385,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390566</v>
+        <v>929720.4897610371</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210579.9731311747</v>
+        <v>269098.8990631723</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132057</v>
+        <v>7919633.117874095</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>34.66067414728066</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>137.0424786983365</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>69.05674881342118</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>125.6384340685011</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>104.5113366705984</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>51.83903723181706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.90848140332574</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.4923106593519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>311.4936872159399</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>104.5113366705979</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>212.7389733439016</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -2002,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.8041854157605</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>249.4119459064931</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>105.3148082618167</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2223,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="H22" t="n">
-        <v>82.92375604299501</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.99181502548868</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>12.60471623380398</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>215.039344642804</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28.477970950351</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>83.58343582796488</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>166.8003053717086</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.3159054168623</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>351.2391879744746</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>14.50169760213065</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.1478855987994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>369.1273761807161</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>162.3333543119055</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.52849267329247</v>
+        <v>89.07602811714224</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>53.3670293231844</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.452075920964713</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.9751665068905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>87.12574707908773</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>929.0463735436861</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>726.8597789024521</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>498.6361606388412</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>263.4840524070985</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4610,7 +4612,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5698337361135</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>825.6304093507003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>582.1816327066002</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X6" t="n">
-        <v>374.3301325010674</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.5698337361135</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4716,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.8614515073789</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>286.9604071117561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117561</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117561</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117561</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>818.7624959030018</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.7624959030018</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>646.9074088293169</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>487.6699538238614</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>341.1353958507464</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>202.4045704333619</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>89.03543484094119</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231457</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>524.903632156528</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490201</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.120910258947</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C11" t="n">
-        <v>1241.158393318536</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,10 +5059,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5069,22 +5071,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1610.120910258947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.120910258947</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.120910258947</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5127,10 +5129,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5163,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D13" t="n">
-        <v>721.1507201626711</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E13" t="n">
-        <v>573.2376265802779</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F13" t="n">
-        <v>426.3476790823676</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G13" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1268.68094731003</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
         <v>1268.68094731003</v>
@@ -5276,7 +5278,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2398.188774620077</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2398.188774620077</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2045.420119349963</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.420119349963</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1655.280787374151</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="15">
@@ -5373,7 +5375,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C17" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D17" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>159.5099885583422</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.109828622464</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
         <v>814.0449459359563</v>
@@ -5592,16 +5594,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5622,13 +5624,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C19" t="n">
-        <v>498.8626623130036</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y19" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1429.843117663621</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C20" t="n">
-        <v>1429.843117663621</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D20" t="n">
-        <v>1429.843117663621</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E20" t="n">
-        <v>1044.054865065376</v>
+        <v>160.3215760242197</v>
       </c>
       <c r="F20" t="n">
-        <v>633.0689602757689</v>
+        <v>160.3215760242197</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>160.3215760242197</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>160.3215760242197</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2189.908715988822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>1816.442957727742</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y20" t="n">
-        <v>1816.442957727742</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="21">
@@ -5826,46 +5828,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G22" t="n">
-        <v>2106.724458372552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2334.714009270569</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2334.714009270569</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>2334.714009270569</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y22" t="n">
-        <v>2106.724458372552</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037877</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E23" t="n">
-        <v>807.3934508328825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>396.407546043275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6014,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.607830218103</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1897.544942874532</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1544.776287604418</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>1171.310529343338</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="24">
@@ -6042,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>2407.975480672791</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>2312.380258669114</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1485.892406545185</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C26" t="n">
-        <v>1485.892406545185</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D26" t="n">
-        <v>1485.892406545185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>1100.104153946941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>689.1182491573331</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>271.15444105552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W26" t="n">
-        <v>1485.892406545185</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X26" t="n">
-        <v>1485.892406545185</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y26" t="n">
-        <v>1485.892406545185</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6303,49 +6305,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>368.8844281164663</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>773.5003462121382</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2334.947574253992</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2188.057626756081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2482.860667836385</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>2482.860667836385</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W28" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
         <v>1268.68094731003</v>
@@ -6488,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2381.515200905345</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2028.746545635231</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1655.280787374151</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005474</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005474</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E31" t="n">
-        <v>325.5314024181542</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F31" t="n">
-        <v>178.6414549202439</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6655,16 +6657,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>952.5674858910851</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>952.5674858910851</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>952.5674858910851</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2297.457756921766</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U32" t="n">
-        <v>2043.695971559857</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V32" t="n">
-        <v>1712.633084216287</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W32" t="n">
-        <v>1712.633084216287</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X32" t="n">
-        <v>1339.167325955207</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1339.167325955207</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6783,16 +6785,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
@@ -6804,16 +6806,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
         <v>53.94298182036445</v>
@@ -6895,13 +6897,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1964.838184214438</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1595.875667274027</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274027</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>408.7300403804399</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6941,46 +6943,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2682.500911622131</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2682.500911622131</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2682.500911622131</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.43802427856</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2351.43802427856</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2351.43802427856</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>2351.43802427856</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,16 +7028,16 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.929004554789</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.992821626882</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.876182214546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7101,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y37" t="n">
-        <v>2489.929004554789</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1208.982837814967</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>426.7989173564413</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>426.7989173564413</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7175,10 +7177,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2533.176005854682</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2279.414220492773</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1948.351333149202</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>1595.582677879088</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X38" t="n">
-        <v>1595.582677879088</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y38" t="n">
-        <v>1595.582677879088</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>272.8312459770186</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C40" t="n">
-        <v>272.8312459770186</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D40" t="n">
-        <v>272.8312459770186</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="E40" t="n">
-        <v>272.8312459770186</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="F40" t="n">
-        <v>272.8312459770186</v>
+        <v>143.9187677972758</v>
       </c>
       <c r="G40" t="n">
-        <v>272.8312459770186</v>
+        <v>143.9187677972758</v>
       </c>
       <c r="H40" t="n">
-        <v>115.0828734095488</v>
+        <v>143.9187677972758</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7354,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V40" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W40" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X40" t="n">
-        <v>272.8312459770186</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y40" t="n">
-        <v>272.8312459770186</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.737983561873</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>946.7754666214612</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>588.5097680147107</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>588.5097680147107</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2092.477155601806</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1702.337823625995</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7494,19 +7496,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.4036268380755</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C43" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>63.49053325568235</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750361</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750361</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W43" t="n">
-        <v>211.4036268380755</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X43" t="n">
-        <v>211.4036268380755</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.4036268380755</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253592</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036446</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7667,7 +7669,7 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7679,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.589960916693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1662.124202655614</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.984870679802</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7737,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>640.1231790760426</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>640.1231790760426</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>640.1231790760426</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3760678736849</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>133.9994170665478</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22598,13 +22600,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>140.4886632986673</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22686,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>95.75810845108876</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>137.8675171738411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>20.3398840379939</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017162</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.11441070893386</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>47.41997957426287</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>297.4019314855959</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>141.7069916148866</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,19 +23551,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>9.73185684893744</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>74.74425144011366</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23707,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47.41997957426331</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>173.498965312152</v>
       </c>
     </row>
     <row r="18">
@@ -23890,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>27.50561684329045</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8578157762263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>164.3722241143018</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>46.61650798304454</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>11.85718952785675</v>
       </c>
       <c r="H22" t="n">
-        <v>73.24713279880014</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24172,16 +24174,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>74.7442514401136</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24254,22 +24256,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>178.2323524828006</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>154.7050860252469</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24412,16 +24414,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>108.8834281215532</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8318313086999</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24649,19 +24651,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24737,16 +24739,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>244.16882264217</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>43.85831389017028</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24895,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>49.64801498594917</v>
+        <v>189.504425431147</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.2687479352325</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>62.54498204632034</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25202,7 +25204,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>159.9140152068409</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25211,16 +25213,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.43676775329538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>44.65679384007888</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>54.11496604575234</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>74.43712911904575</v>
+        <v>45.88959367519598</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25594,16 +25596,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>353.509016418527</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>135.9689721019665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25834,10 +25836,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>110.3648512204699</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>278.7586751565901</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25919,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>59.53944490107013</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.399050244</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.416541758</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972479</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26329,13 +26331,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26347,7 +26349,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>432846.1740429962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714447</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26485,10 +26487,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861917</v>
+        <v>12006.33885861913</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016692</v>
+        <v>92775.77039016684</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535128016</v>
+        <v>92775.77039016687</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326498</v>
+        <v>-236811.0420920714</v>
       </c>
       <c r="F6" t="n">
         <v>196035.1319509247</v>
@@ -26540,7 +26542,7 @@
         <v>196035.1319509247</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518185</v>
@@ -26549,19 +26551,19 @@
         <v>196035.1319509247</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.4897223991</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028956</v>
+        <v>88061.77127686649</v>
       </c>
       <c r="N6" t="n">
+        <v>196035.1319509246</v>
+      </c>
+      <c r="O6" t="n">
         <v>196035.1319509247</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>196035.1319509248</v>
-      </c>
-      <c r="P6" t="n">
-        <v>196035.1319509247</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26793,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26805,10 +26807,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302973</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31616,25 +31618,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31849,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32324,7 +32326,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32552,7 +32554,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32786,7 +32788,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32798,7 +32800,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
@@ -32965,7 +32967,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
         <v>95.39071536633797</v>
@@ -33026,7 +33028,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33044,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33260,7 +33262,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33272,13 +33274,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
@@ -33503,7 +33505,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
         <v>205.8702969983122</v>
@@ -33515,7 +33517,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
@@ -33746,7 +33748,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391989</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
@@ -33755,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33971,10 +33973,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -34144,7 +34146,7 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
@@ -34214,7 +34216,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044143</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34457,7 +34459,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.65770498321449</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903813</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735647</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,10 +35974,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>242.1053372686586</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37151,7 +37153,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37163,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37862,7 +37864,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
